--- a/xlsx-templates/zichan_caigou.xlsx
+++ b/xlsx-templates/zichan_caigou.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangchen/Desktop/Labs/oa/backend/xlsx-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318EE8ED-3EEC-B947-8DC7-C5DA57B6CAFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="51200" yWindow="-5200" windowWidth="21600" windowHeight="37940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$H$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$H$21</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>固定资产购置申请表</t>
   </si>
@@ -92,18 +93,26 @@
     <t>行政登记资产编号</t>
   </si>
   <si>
-    <t>行政</t>
+    <t>申报用途</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">审批人：无 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人</t>
     <rPh sb="0" eb="1">
       <t>xing'zheng</t>
     </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,15 +145,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <strike/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
@@ -160,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -300,11 +300,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -312,43 +349,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -360,8 +361,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -372,6 +427,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -639,85 +697,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" ht="24" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
@@ -727,9 +785,9 @@
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -739,7 +797,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -749,7 +807,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -759,7 +817,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -769,7 +827,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -779,106 +837,172 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:8" ht="39" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" ht="39" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" ht="46" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" ht="45" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="9"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="9"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="10"/>
+      <c r="B20" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8" ht="32">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="23">
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B16:H16"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B10:H10"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:H15"/>
+    <mergeCell ref="B17:H19"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B10:H10"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="30" scale="41" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="30" scale="33" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>